--- a/data/trans_orig/IP07A16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A16-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F5B4F91-EA62-4AD8-A525-328F860E45E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25381876-F2EE-4D8C-8196-19F4D2410D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A4007F55-22F1-4340-977D-5437358535D2}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B29294E8-4051-4F30-B506-09AD8EBB00B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,223 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>8,7%</t>
@@ -100,33 +313,6 @@
     <t>13,05%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>47,04%</t>
   </si>
   <si>
@@ -154,18 +340,6 @@
     <t>46,38%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>44,26%</t>
   </si>
   <si>
@@ -193,105 +367,138 @@
     <t>55,51%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
     <t>12,32%</t>
   </si>
   <si>
@@ -319,18 +526,6 @@
     <t>19,66%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>42,55%</t>
   </si>
   <si>
@@ -358,12 +553,6 @@
     <t>48,61%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>45,14%</t>
   </si>
   <si>
@@ -391,193 +580,37 @@
     <t>47,97%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>9,4%</t>
@@ -607,24 +640,6 @@
     <t>12,39%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
     <t>42,24%</t>
   </si>
   <si>
@@ -652,21 +667,6 @@
     <t>44,07%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
     <t>48,03%</t>
   </si>
   <si>
@@ -697,6 +697,201 @@
     <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
     <t>8,05%</t>
   </si>
   <si>
@@ -712,30 +907,12 @@
     <t>2,52%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
     <t>4,1%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
     <t>36,92%</t>
   </si>
   <si>
@@ -763,18 +940,6 @@
     <t>45,64%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>54,38%</t>
   </si>
   <si>
@@ -802,94 +967,157 @@
     <t>57,26%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>9,37%</t>
@@ -919,27 +1147,6 @@
     <t>13,34%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
     <t>41,55%</t>
   </si>
   <si>
@@ -964,15 +1171,6 @@
     <t>48,05%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
     <t>46,54%</t>
   </si>
   <si>
@@ -1000,202 +1198,46 @@
     <t>53,53%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>8,53%</t>
@@ -1225,27 +1267,6 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
     <t>36,78%</t>
   </si>
   <si>
@@ -1273,27 +1294,6 @@
     <t>42,07%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
     <t>53,0%</t>
   </si>
   <si>
@@ -1321,6 +1321,213 @@
     <t>Menores según frecuencia de ayudarse entre los amigos en 2015 (Tasa respuesta: 47,04%)</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
     <t>8,84%</t>
   </si>
   <si>
@@ -1348,21 +1555,6 @@
     <t>13,03%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
     <t>37,63%</t>
   </si>
   <si>
@@ -1387,15 +1579,6 @@
     <t>39,62%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>51,55%</t>
   </si>
   <si>
@@ -1423,100 +1606,130 @@
     <t>60,41%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>7,48%</t>
@@ -1540,24 +1753,6 @@
     <t>12,7%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
     <t>32,77%</t>
   </si>
   <si>
@@ -1585,21 +1780,6 @@
     <t>37,72%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
     <t>58,98%</t>
   </si>
   <si>
@@ -1627,184 +1807,25 @@
     <t>64,13%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>7,18%</t>
@@ -1828,21 +1849,6 @@
     <t>10,09%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
     <t>35,25%</t>
   </si>
   <si>
@@ -1859,12 +1865,6 @@
   </si>
   <si>
     <t>30,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
   </si>
   <si>
     <t>56,36%</t>
@@ -2283,7 +2283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BAD145-F46C-4005-BAEA-9F9C173A2012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05649958-C3CA-4F5A-B701-F17C653F943F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2401,10 +2401,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>8631</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2416,40 +2416,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>10616</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>30</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19247</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2458,196 +2458,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>46684</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>36603</v>
+        <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>83287</v>
+        <v>929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7846</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>13293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8369</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6262</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="7">
+        <v>19</v>
+      </c>
+      <c r="N8" s="7">
+        <v>14631</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="7">
-        <v>67</v>
-      </c>
-      <c r="D8" s="7">
-        <v>43920</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="7">
-        <v>88</v>
-      </c>
-      <c r="I8" s="7">
-        <v>56119</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="7">
-        <v>155</v>
-      </c>
-      <c r="N8" s="7">
-        <v>100040</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,108 +2656,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>99235</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>103993</v>
+        <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>203228</v>
+        <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>6148</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2560</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>8708</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2781,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2796,112 +2796,112 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>30378</v>
+        <v>6148</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>23791</v>
+        <v>2560</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>54169</v>
+        <v>8708</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>30378</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="7">
+        <v>35</v>
+      </c>
+      <c r="I13" s="7">
+        <v>23791</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="7">
+        <v>80</v>
+      </c>
+      <c r="N13" s="7">
+        <v>54169</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>64</v>
@@ -2910,7 +2910,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>48</v>
@@ -2919,13 +2919,13 @@
         <v>30473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -2934,13 +2934,13 @@
         <v>22628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -2949,13 +2949,13 @@
         <v>53101</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2970,13 @@
         <v>66999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -2985,13 +2985,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -3000,72 +3000,72 @@
         <v>115978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>12058</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>16481</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>28539</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3074,196 +3074,196 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1417</v>
+        <v>654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1417</v>
+        <v>654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>41653</v>
+        <v>8631</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>38016</v>
+        <v>10616</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>79669</v>
+        <v>19247</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>46684</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>93</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>36603</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>83287</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D20" s="7">
-        <v>44187</v>
+        <v>43920</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="7">
+        <v>88</v>
+      </c>
+      <c r="I20" s="7">
+        <v>56119</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="7">
+        <v>155</v>
+      </c>
+      <c r="N20" s="7">
+        <v>100040</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7">
-        <v>35220</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="7">
-        <v>109</v>
-      </c>
-      <c r="N20" s="7">
-        <v>79406</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,306 +3272,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D21" s="7">
-        <v>97898</v>
+        <v>99235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>91133</v>
+        <v>103993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="N21" s="7">
-        <v>189031</v>
+        <v>203228</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>929</v>
+        <v>632</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>929</v>
+        <v>1280</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>533</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>5447</v>
+        <v>5537</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>7846</v>
+        <v>5624</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="7">
+        <v>19</v>
+      </c>
+      <c r="N24" s="7">
+        <v>11160</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="M24" s="7">
-        <v>17</v>
-      </c>
-      <c r="N24" s="7">
-        <v>13293</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>21245</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>19311</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>40556</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D26" s="7">
-        <v>8369</v>
+        <v>38379</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I26" s="7">
-        <v>6262</v>
+        <v>34324</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="N26" s="7">
-        <v>14631</v>
+        <v>72703</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,306 +3580,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>66295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="I27" s="7">
-        <v>15037</v>
+        <v>60424</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="N27" s="7">
-        <v>28853</v>
+        <v>126719</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>5537</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>5624</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>149</v>
       </c>
       <c r="M28" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>11160</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>533</v>
+        <v>1417</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>1021</v>
+        <v>1417</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>21245</v>
+        <v>12058</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="7">
+        <v>22</v>
+      </c>
+      <c r="I30" s="7">
+        <v>16481</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>40</v>
+      </c>
+      <c r="N30" s="7">
+        <v>28539</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="7">
-        <v>32</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19311</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M30" s="7">
-        <v>65</v>
-      </c>
-      <c r="N30" s="7">
-        <v>40556</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D31" s="7">
-        <v>647</v>
+        <v>41653</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="7">
+        <v>49</v>
+      </c>
+      <c r="I31" s="7">
+        <v>38016</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>632</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>110</v>
+      </c>
+      <c r="N31" s="7">
+        <v>79669</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M31" s="7">
-        <v>2</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1280</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D32" s="7">
-        <v>38379</v>
+        <v>44187</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>46</v>
+      </c>
+      <c r="I32" s="7">
+        <v>35220</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H32" s="7">
-        <v>55</v>
-      </c>
-      <c r="I32" s="7">
-        <v>34324</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>109</v>
+      </c>
+      <c r="N32" s="7">
+        <v>79406</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M32" s="7">
-        <v>115</v>
-      </c>
-      <c r="N32" s="7">
-        <v>72703</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,49 +3888,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="D33" s="7">
-        <v>66295</v>
+        <v>97898</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="I33" s="7">
-        <v>60424</v>
+        <v>91133</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="N33" s="7">
-        <v>126719</v>
+        <v>189031</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,55 +3941,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>32374</v>
+        <v>647</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>632</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="7">
-        <v>54</v>
-      </c>
-      <c r="I34" s="7">
-        <v>36209</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1280</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M34" s="7">
-        <v>103</v>
-      </c>
-      <c r="N34" s="7">
-        <v>68583</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3998,13 +3998,13 @@
         <v>487</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -4013,13 +4013,13 @@
         <v>2604</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -4028,112 +4028,112 @@
         <v>3091</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="D36" s="7">
-        <v>145406</v>
+        <v>32374</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="7">
+        <v>54</v>
+      </c>
+      <c r="I36" s="7">
+        <v>36209</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>103</v>
+      </c>
+      <c r="N36" s="7">
+        <v>68583</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H36" s="7">
-        <v>184</v>
-      </c>
-      <c r="I36" s="7">
-        <v>125567</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M36" s="7">
-        <v>401</v>
-      </c>
-      <c r="N36" s="7">
-        <v>270974</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="D37" s="7">
-        <v>647</v>
+        <v>145406</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="7">
+        <v>184</v>
+      </c>
+      <c r="I37" s="7">
+        <v>125567</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>632</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>401</v>
+      </c>
+      <c r="N37" s="7">
+        <v>270974</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1280</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>208</v>
@@ -4142,7 +4142,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>249</v>
@@ -4202,13 +4202,13 @@
         <v>344243</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>474</v>
@@ -4217,13 +4217,13 @@
         <v>319566</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>991</v>
@@ -4232,13 +4232,13 @@
         <v>663809</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4259,7 +4259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1766F110-97C7-4835-9AB6-D45F5F1D7907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2364C795-B4DD-4E87-B11E-16F55E815CA4}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4377,253 +4377,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>7772</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>760</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5143</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>760</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M4" s="7">
-        <v>20</v>
-      </c>
-      <c r="N4" s="7">
-        <v>12915</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>35648</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H6" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>42663</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="M6" s="7">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>78312</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5832</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>726</v>
+        <v>3325</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>726</v>
+        <v>9157</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>52498</v>
+        <v>8658</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>49300</v>
+        <v>7859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>101799</v>
+        <v>16517</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,108 +4632,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>96543</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>98442</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>194985</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7386</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>3022</v>
+        <v>1576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>10408</v>
+        <v>1576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4742,13 +4742,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4757,13 +4757,13 @@
         <v>697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4772,121 +4772,121 @@
         <v>697</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>22219</v>
+        <v>7386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>18659</v>
+        <v>3022</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>40878</v>
+        <v>10408</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>22219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>259</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>1576</v>
+        <v>18659</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>1576</v>
+        <v>40878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>41</v>
@@ -4895,13 +4895,13 @@
         <v>27881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4910,13 +4910,13 @@
         <v>29729</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -4925,13 +4925,13 @@
         <v>57609</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4946,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -4961,13 +4961,13 @@
         <v>53683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>159</v>
@@ -4976,270 +4976,270 @@
         <v>111169</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7">
-        <v>8730</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>7242</v>
+        <v>726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>15971</v>
+        <v>726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>625</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>609</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>1664</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1826</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
       <c r="N17" s="7">
-        <v>3489</v>
+        <v>1234</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>38700</v>
+        <v>7772</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>39055</v>
+        <v>5143</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>77756</v>
+        <v>12915</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>691</v>
+        <v>35648</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>42663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="N19" s="7">
-        <v>691</v>
+        <v>78312</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
-        <v>43345</v>
+        <v>52498</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I20" s="7">
-        <v>43204</v>
+        <v>49300</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="N20" s="7">
-        <v>86549</v>
+        <v>101799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,150 +5248,150 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D21" s="7">
-        <v>93130</v>
+        <v>96543</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="I21" s="7">
-        <v>91327</v>
+        <v>98442</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="N21" s="7">
-        <v>184457</v>
+        <v>194985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1193</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M23" s="7">
+        <v>5</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3210</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>322</v>
@@ -5400,13 +5400,13 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>5832</v>
+        <v>4360</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>323</v>
@@ -5418,10 +5418,10 @@
         <v>325</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>3325</v>
+        <v>5486</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>326</v>
@@ -5433,10 +5433,10 @@
         <v>328</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>9157</v>
+        <v>9846</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>329</v>
@@ -5451,103 +5451,103 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>19399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>332</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7">
-        <v>760</v>
+        <v>27535</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>21</v>
+        <v>336</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="N25" s="7">
-        <v>760</v>
+        <v>46935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>21</v>
+        <v>339</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7">
-        <v>8658</v>
+        <v>43140</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I26" s="7">
-        <v>7859</v>
+        <v>30893</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M26" s="7">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="N26" s="7">
-        <v>16517</v>
+        <v>74034</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,252 +5556,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69524</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>65806</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>135330</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>4360</v>
+        <v>691</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>345</v>
+        <v>276</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>346</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H28" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>5486</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>349</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M28" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>9846</v>
+        <v>691</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>2018</v>
+        <v>1664</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>1193</v>
+        <v>1826</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3489</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="M29" s="7">
-        <v>5</v>
-      </c>
-      <c r="N29" s="7">
-        <v>3210</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>19399</v>
+        <v>8730</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>7242</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H30" s="7">
-        <v>43</v>
-      </c>
-      <c r="I30" s="7">
-        <v>27535</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>21</v>
+      </c>
+      <c r="N30" s="7">
+        <v>15971</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="M30" s="7">
-        <v>74</v>
-      </c>
-      <c r="N30" s="7">
-        <v>46935</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D31" s="7">
-        <v>607</v>
+        <v>38700</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>50</v>
+      </c>
+      <c r="I31" s="7">
+        <v>39055</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>698</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>374</v>
       </c>
       <c r="M31" s="7">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="N31" s="7">
-        <v>1305</v>
+        <v>77756</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>376</v>
@@ -5810,13 +5810,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D32" s="7">
-        <v>43140</v>
+        <v>43345</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>377</v>
@@ -5828,10 +5828,10 @@
         <v>379</v>
       </c>
       <c r="H32" s="7">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I32" s="7">
-        <v>30893</v>
+        <v>43204</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>380</v>
@@ -5843,10 +5843,10 @@
         <v>382</v>
       </c>
       <c r="M32" s="7">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N32" s="7">
-        <v>74034</v>
+        <v>86549</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>383</v>
@@ -5864,49 +5864,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>69524</v>
+        <v>93130</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>65806</v>
+        <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="N33" s="7">
-        <v>135330</v>
+        <v>184457</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,55 +5917,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>28247</v>
+        <v>1298</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>386</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3760</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H34" s="7">
-        <v>30</v>
-      </c>
-      <c r="I34" s="7">
-        <v>20893</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>7</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5058</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="M34" s="7">
-        <v>71</v>
-      </c>
-      <c r="N34" s="7">
-        <v>49140</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>6</v>
@@ -5974,13 +5974,13 @@
         <v>4306</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -5989,13 +5989,13 @@
         <v>4325</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -6004,112 +6004,112 @@
         <v>8631</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="D36" s="7">
-        <v>121799</v>
+        <v>28247</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>30</v>
+      </c>
+      <c r="I36" s="7">
+        <v>20893</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H36" s="7">
-        <v>188</v>
-      </c>
-      <c r="I36" s="7">
-        <v>131237</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>71</v>
+      </c>
+      <c r="N36" s="7">
+        <v>49140</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="M36" s="7">
-        <v>361</v>
-      </c>
-      <c r="N36" s="7">
-        <v>253037</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="D37" s="7">
-        <v>1298</v>
+        <v>121799</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>188</v>
+      </c>
+      <c r="I37" s="7">
+        <v>131237</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H37" s="7">
-        <v>5</v>
-      </c>
-      <c r="I37" s="7">
-        <v>3760</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>361</v>
+      </c>
+      <c r="N37" s="7">
+        <v>253037</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="M37" s="7">
-        <v>7</v>
-      </c>
-      <c r="N37" s="7">
-        <v>5058</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>417</v>
@@ -6118,7 +6118,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>260</v>
@@ -6178,13 +6178,13 @@
         <v>331174</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>456</v>
@@ -6193,13 +6193,13 @@
         <v>321200</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>938</v>
@@ -6208,13 +6208,13 @@
         <v>652374</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +6235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6B19DC-8892-49CE-8F86-327F7A24C6D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A37CF53-0E87-436F-AD48-EA175B0D24A8}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6353,253 +6353,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9457</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9785</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="M4" s="7">
-        <v>30</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19243</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1334</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1619</v>
+        <v>1023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>2953</v>
+        <v>1023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>40254</v>
+        <v>1371</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H6" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>33082</v>
+        <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>445</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M6" s="7">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>73336</v>
+        <v>2386</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>790</v>
+        <v>4000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>440</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>441</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>449</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>442</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>443</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>790</v>
+        <v>8633</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>445</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>446</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>55142</v>
+        <v>8943</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7255</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>18</v>
+      </c>
+      <c r="N8" s="7">
+        <v>16198</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="H8" s="7">
-        <v>90</v>
-      </c>
-      <c r="I8" s="7">
-        <v>60727</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="M8" s="7">
-        <v>169</v>
-      </c>
-      <c r="N8" s="7">
-        <v>115869</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,108 +6608,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>106978</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>105213</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>212191</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3084</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>461</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>462</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>456</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>5593</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>463</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>464</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>8677</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6718,13 +6718,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6733,13 +6733,13 @@
         <v>722</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -6748,121 +6748,121 @@
         <v>722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>25268</v>
+        <v>3084</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>475</v>
+        <v>153</v>
       </c>
       <c r="H12" s="7">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>21785</v>
+        <v>5593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="M12" s="7">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>47053</v>
+        <v>8677</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>25268</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>470</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>471</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>21785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>473</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>474</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>47053</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>476</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>477</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>40</v>
@@ -6871,13 +6871,13 @@
         <v>30961</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -6886,13 +6886,13 @@
         <v>28815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -6901,13 +6901,13 @@
         <v>59776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,13 +6922,13 @@
         <v>59313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -6937,13 +6937,13 @@
         <v>56915</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -6952,270 +6952,270 @@
         <v>116228</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>7538</v>
+        <v>790</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>493</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>10222</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>495</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>496</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>17760</v>
+        <v>790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>498</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>763</v>
+        <v>1334</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1547</v>
+        <v>1619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>501</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>2311</v>
+        <v>2953</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>33009</v>
+        <v>9457</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="H18" s="7">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>33236</v>
+        <v>9785</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="M18" s="7">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>66245</v>
+        <v>19243</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>40254</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>505</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>506</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I19" s="7">
-        <v>724</v>
+        <v>33082</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>21</v>
+        <v>509</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="N19" s="7">
-        <v>724</v>
+        <v>73336</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="7">
-        <v>59405</v>
+        <v>55142</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H20" s="7">
+        <v>90</v>
+      </c>
+      <c r="I20" s="7">
+        <v>60727</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="M20" s="7">
+        <v>169</v>
+      </c>
+      <c r="N20" s="7">
+        <v>115869</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="H20" s="7">
-        <v>80</v>
-      </c>
-      <c r="I20" s="7">
-        <v>61863</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="M20" s="7">
-        <v>158</v>
-      </c>
-      <c r="N20" s="7">
-        <v>121268</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,306 +7224,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="D21" s="7">
-        <v>100716</v>
+        <v>106978</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>105213</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="N21" s="7">
-        <v>208308</v>
+        <v>212191</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>529</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>531</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>2386</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>533</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>534</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>524</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>536</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>1023</v>
+        <v>1440</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>4000</v>
+        <v>4344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>530</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>4632</v>
+        <v>5792</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>8633</v>
+        <v>10136</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24118</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>537</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>538</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>535</v>
+        <v>412</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>22774</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>539</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>46892</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>541</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7">
-        <v>8943</v>
+        <v>48041</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>247</v>
+        <v>544</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H26" s="7">
+        <v>66</v>
+      </c>
+      <c r="I26" s="7">
+        <v>42487</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="M26" s="7">
+        <v>135</v>
+      </c>
+      <c r="N26" s="7">
+        <v>90528</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7255</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="M26" s="7">
-        <v>18</v>
-      </c>
-      <c r="N26" s="7">
-        <v>16198</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,267 +7532,267 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>77943</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71053</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>148996</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>4344</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>558</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>559</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="H28" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>5792</v>
+        <v>724</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>562</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="M28" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>10136</v>
+        <v>724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>565</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>763</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
-        <v>1440</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>1547</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>559</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>1440</v>
+        <v>2311</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>21</v>
+        <v>562</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>24118</v>
+        <v>7538</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>573</v>
+        <v>285</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>405</v>
+        <v>565</v>
       </c>
       <c r="H30" s="7">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I30" s="7">
-        <v>22774</v>
+        <v>10222</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>158</v>
+        <v>566</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="M30" s="7">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="N30" s="7">
-        <v>46892</v>
+        <v>17760</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>576</v>
+        <v>400</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>33009</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>571</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>572</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H31" s="7">
+        <v>45</v>
+      </c>
+      <c r="I31" s="7">
+        <v>33236</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="M31" s="7">
+        <v>91</v>
+      </c>
+      <c r="N31" s="7">
+        <v>66245</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D32" s="7">
-        <v>48041</v>
+        <v>59405</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>580</v>
@@ -7804,10 +7804,10 @@
         <v>582</v>
       </c>
       <c r="H32" s="7">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I32" s="7">
-        <v>42487</v>
+        <v>61863</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>583</v>
@@ -7819,10 +7819,10 @@
         <v>585</v>
       </c>
       <c r="M32" s="7">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="N32" s="7">
-        <v>90528</v>
+        <v>121268</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>586</v>
@@ -7840,49 +7840,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D33" s="7">
-        <v>77943</v>
+        <v>100716</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71053</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="N33" s="7">
-        <v>148996</v>
+        <v>208308</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,55 +7893,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>25795</v>
+        <v>790</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>589</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>590</v>
       </c>
       <c r="H34" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>32407</v>
+        <v>724</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>591</v>
+        <v>182</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>592</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>593</v>
+        <v>114</v>
       </c>
       <c r="M34" s="7">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>58202</v>
+        <v>1513</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>561</v>
+        <v>187</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>594</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>595</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>5</v>
@@ -7950,13 +7950,13 @@
         <v>3538</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -7965,13 +7965,13 @@
         <v>4911</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -7980,121 +7980,121 @@
         <v>8449</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="D36" s="7">
-        <v>126650</v>
+        <v>25795</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="H36" s="7">
+        <v>45</v>
+      </c>
+      <c r="I36" s="7">
+        <v>32407</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="M36" s="7">
+        <v>82</v>
+      </c>
+      <c r="N36" s="7">
+        <v>58202</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H36" s="7">
-        <v>169</v>
-      </c>
-      <c r="I36" s="7">
-        <v>115509</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="M36" s="7">
-        <v>343</v>
-      </c>
-      <c r="N36" s="7">
-        <v>242159</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="D37" s="7">
-        <v>790</v>
+        <v>126650</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="7">
+        <v>169</v>
+      </c>
+      <c r="I37" s="7">
+        <v>115509</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="M37" s="7">
+        <v>343</v>
+      </c>
+      <c r="N37" s="7">
+        <v>242159</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>724</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1513</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>276</v>
@@ -8154,13 +8154,13 @@
         <v>359264</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>507</v>
@@ -8169,13 +8169,13 @@
         <v>354698</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>1000</v>
@@ -8184,13 +8184,13 @@
         <v>713962</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A16-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25381876-F2EE-4D8C-8196-19F4D2410D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EADA6950-7C71-418A-BB80-9CD2C954B79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B29294E8-4051-4F30-B506-09AD8EBB00B9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DCFDF7B-CAEE-459F-AF2D-7846A17EB026}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="606">
   <si>
     <t>Menores según frecuencia de ayudarse entre los amigos en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
@@ -70,108 +70,189 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
     <t>1,86%</t>
   </si>
   <si>
@@ -181,1717 +262,1600 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2015 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
   </si>
   <si>
     <t>48,61%</t>
   </si>
   <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1866,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1998,39 +1962,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2082,7 +2046,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2193,13 +2157,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2208,6 +2165,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2272,19 +2236,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05649958-C3CA-4F5A-B701-F17C653F943F}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D14A3AE-8E5A-47BC-BF47-D1BCF8BCA44D}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2401,10 +2385,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8369</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2416,91 +2400,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6262</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>14631</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5447</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7846</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>13293</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2509,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2524,13 +2508,13 @@
         <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2539,115 +2523,115 @@
         <v>929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5447</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>7846</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>13293</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8369</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6262</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>14631</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,106 +2693,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>30473</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>22628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>53101</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>30378</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>23791</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>54169</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>9</v>
@@ -2817,13 +2801,13 @@
         <v>6148</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2832,13 +2816,13 @@
         <v>2560</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -2847,112 +2831,112 @@
         <v>8708</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>30378</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>23791</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>54169</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>30473</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>22628</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>53101</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>73</v>
@@ -3017,106 +3001,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>43920</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>56119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>100040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>46684</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>654</v>
+        <v>36603</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="N17" s="7">
-        <v>654</v>
+        <v>83287</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>13</v>
@@ -3125,13 +3109,13 @@
         <v>8631</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -3140,13 +3124,13 @@
         <v>10616</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -3155,112 +3139,112 @@
         <v>19247</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>46684</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>36603</v>
+        <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>83287</v>
+        <v>654</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" s="7">
-        <v>67</v>
-      </c>
-      <c r="D20" s="7">
-        <v>43920</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>102</v>
       </c>
       <c r="H20" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>56119</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>100040</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>108</v>
@@ -3325,106 +3309,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D22" s="7">
-        <v>647</v>
+        <v>38379</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I22" s="7">
-        <v>632</v>
+        <v>34324</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="N22" s="7">
-        <v>1280</v>
+        <v>72703</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7">
-        <v>487</v>
+        <v>21245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I23" s="7">
-        <v>533</v>
+        <v>19311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="N23" s="7">
-        <v>1021</v>
+        <v>40556</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>9</v>
@@ -3433,13 +3417,13 @@
         <v>5537</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3448,13 +3432,13 @@
         <v>5624</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -3463,115 +3447,115 @@
         <v>11160</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>21245</v>
+        <v>487</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>19311</v>
+        <v>533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>40556</v>
+        <v>1021</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>38379</v>
+        <v>647</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>34324</v>
+        <v>632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>72703</v>
+        <v>1280</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,112 +3611,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>44187</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>35220</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>79406</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>41653</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I29" s="7">
-        <v>1417</v>
+        <v>38016</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="N29" s="7">
-        <v>1417</v>
+        <v>79669</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>18</v>
@@ -3741,13 +3725,13 @@
         <v>12058</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -3756,13 +3740,13 @@
         <v>16481</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -3771,115 +3755,115 @@
         <v>28539</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>41653</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>38016</v>
+        <v>1417</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="M31" s="7">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>79669</v>
+        <v>1417</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
-        <v>63</v>
-      </c>
-      <c r="D32" s="7">
-        <v>44187</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>35220</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M32" s="7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>79406</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,106 +3925,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="D34" s="7">
-        <v>647</v>
+        <v>165328</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="I34" s="7">
-        <v>632</v>
+        <v>154553</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7">
-        <v>2</v>
+        <v>480</v>
       </c>
       <c r="N34" s="7">
-        <v>1280</v>
+        <v>319882</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="D35" s="7">
-        <v>487</v>
+        <v>145406</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="I35" s="7">
-        <v>2604</v>
+        <v>125567</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M35" s="7">
-        <v>5</v>
+        <v>401</v>
       </c>
       <c r="N35" s="7">
-        <v>3091</v>
+        <v>270974</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>49</v>
@@ -4049,13 +4033,13 @@
         <v>32374</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H36" s="7">
         <v>54</v>
@@ -4064,13 +4048,13 @@
         <v>36209</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M36" s="7">
         <v>103</v>
@@ -4079,115 +4063,115 @@
         <v>68583</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>145406</v>
+        <v>487</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H37" s="7">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>125567</v>
+        <v>2604</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M37" s="7">
-        <v>401</v>
+        <v>5</v>
       </c>
       <c r="N37" s="7">
-        <v>270974</v>
+        <v>3091</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>165328</v>
+        <v>647</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H38" s="7">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>154553</v>
+        <v>632</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M38" s="7">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>319882</v>
+        <v>1280</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>215</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,6 +4223,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4259,8 +4248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2364C795-B4DD-4E87-B11E-16F55E815CA4}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777CA7C-AED4-4E57-80C3-6D427CBB4F37}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4276,7 +4265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4377,106 +4366,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8658</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>760</v>
+        <v>7859</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>760</v>
+        <v>16517</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5832</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>9157</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4485,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4500,13 +4489,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4515,115 +4504,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5832</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3325</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>9157</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8658</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>7859</v>
+        <v>760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>16517</v>
+        <v>760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,106 +4674,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>27881</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>1576</v>
+        <v>29729</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="N10" s="7">
-        <v>1576</v>
+        <v>57609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>22219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>697</v>
+        <v>18659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="N11" s="7">
-        <v>697</v>
+        <v>40878</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>11</v>
@@ -4793,13 +4782,13 @@
         <v>7386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4808,13 +4797,13 @@
         <v>3022</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -4823,115 +4812,115 @@
         <v>10408</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="7">
-        <v>22219</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>18659</v>
+        <v>697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>40878</v>
+        <v>697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7">
-        <v>27881</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>29729</v>
+        <v>1576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>57609</v>
+        <v>1576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,106 +4982,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>52498</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I16" s="7">
-        <v>726</v>
+        <v>49300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N16" s="7">
-        <v>726</v>
+        <v>101799</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>625</v>
+        <v>35648</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>609</v>
+        <v>42663</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="N17" s="7">
-        <v>1234</v>
+        <v>78312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>12</v>
@@ -5101,13 +5090,13 @@
         <v>7772</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5116,13 +5105,13 @@
         <v>5143</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5131,115 +5120,115 @@
         <v>12915</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>35648</v>
+        <v>625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>42663</v>
+        <v>609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>78312</v>
+        <v>1234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7">
-        <v>78</v>
-      </c>
-      <c r="D20" s="7">
-        <v>52498</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>49300</v>
+        <v>726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>101799</v>
+        <v>726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,106 +5290,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>607</v>
+        <v>43140</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>698</v>
+        <v>30893</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="N22" s="7">
-        <v>1305</v>
+        <v>74034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7">
-        <v>2018</v>
+        <v>19399</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I23" s="7">
-        <v>1193</v>
+        <v>27535</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="N23" s="7">
-        <v>3210</v>
+        <v>46935</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -5409,13 +5398,13 @@
         <v>4360</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -5424,13 +5413,13 @@
         <v>5486</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -5439,115 +5428,115 @@
         <v>9846</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>19399</v>
+        <v>2018</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H25" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>27535</v>
+        <v>1193</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>46935</v>
+        <v>3210</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>43140</v>
+        <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>30893</v>
+        <v>698</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>74034</v>
+        <v>1305</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,112 +5592,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D28" s="7">
-        <v>691</v>
+        <v>43345</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>43204</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="N28" s="7">
-        <v>691</v>
+        <v>86549</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D29" s="7">
-        <v>1664</v>
+        <v>38700</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>353</v>
+        <v>284</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I29" s="7">
-        <v>1826</v>
+        <v>39055</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="N29" s="7">
-        <v>3489</v>
+        <v>77756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>357</v>
+        <v>165</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>12</v>
@@ -5717,13 +5706,13 @@
         <v>8730</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>361</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -5732,13 +5721,13 @@
         <v>7242</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -5747,112 +5736,112 @@
         <v>15971</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>38700</v>
+        <v>1664</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H31" s="7">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>39055</v>
+        <v>1826</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>373</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M31" s="7">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>77756</v>
+        <v>3489</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>168</v>
+        <v>380</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>691</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
-        <v>62</v>
-      </c>
-      <c r="D32" s="7">
-        <v>43345</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H32" s="7">
-        <v>56</v>
-      </c>
-      <c r="I32" s="7">
-        <v>43204</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>381</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M32" s="7">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>86549</v>
+        <v>691</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>383</v>
+        <v>312</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>384</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>385</v>
@@ -5917,106 +5906,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>260</v>
       </c>
       <c r="D34" s="7">
-        <v>1298</v>
+        <v>175523</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>386</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>387</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H34" s="7">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="I34" s="7">
-        <v>3760</v>
+        <v>160985</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M34" s="7">
-        <v>7</v>
+        <v>487</v>
       </c>
       <c r="N34" s="7">
-        <v>5058</v>
+        <v>336508</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="D35" s="7">
-        <v>4306</v>
+        <v>121799</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>395</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H35" s="7">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="I35" s="7">
-        <v>4325</v>
+        <v>131237</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M35" s="7">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="N35" s="7">
-        <v>8631</v>
+        <v>253037</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>275</v>
+        <v>401</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>41</v>
@@ -6025,13 +6014,13 @@
         <v>28247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -6040,13 +6029,13 @@
         <v>20893</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -6055,115 +6044,115 @@
         <v>49140</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="D37" s="7">
-        <v>121799</v>
+        <v>4306</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>409</v>
+        <v>273</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H37" s="7">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="I37" s="7">
-        <v>131237</v>
+        <v>4325</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>414</v>
+        <v>276</v>
       </c>
       <c r="M37" s="7">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>253037</v>
+        <v>8631</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>260</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>175523</v>
+        <v>1298</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5</v>
+      </c>
+      <c r="I38" s="7">
+        <v>3760</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="H38" s="7">
-        <v>227</v>
-      </c>
-      <c r="I38" s="7">
-        <v>160985</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>7</v>
+      </c>
+      <c r="N38" s="7">
+        <v>5058</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="P38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M38" s="7">
-        <v>487</v>
-      </c>
-      <c r="N38" s="7">
-        <v>336508</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,6 +6204,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6235,8 +6229,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A37CF53-0E87-436F-AD48-EA175B0D24A8}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB176D0-8C51-410B-99AA-794B224930EE}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6252,7 +6246,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6353,106 +6347,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H4" s="7">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7255</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>428</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>16198</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>429</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>1023</v>
+        <v>4632</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>436</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>1023</v>
+        <v>8633</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -6461,13 +6455,13 @@
         <v>1371</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6476,13 +6470,13 @@
         <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6491,115 +6485,115 @@
         <v>2386</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>355</v>
+        <v>446</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>440</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>441</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>448</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>4632</v>
+        <v>1023</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>442</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>443</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>8633</v>
+        <v>1023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>446</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8943</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7255</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>450</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>451</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="M8" s="7">
-        <v>18</v>
-      </c>
-      <c r="N8" s="7">
-        <v>16198</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,106 +6655,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>30961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>454</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H10" s="7">
+        <v>42</v>
+      </c>
+      <c r="I10" s="7">
+        <v>28815</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>59776</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>459</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>460</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>25268</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>462</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>722</v>
+        <v>21785</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>722</v>
+        <v>47053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>468</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>469</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -6769,13 +6763,13 @@
         <v>3084</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>153</v>
+        <v>473</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6784,13 +6778,13 @@
         <v>5593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>466</v>
+        <v>170</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -6799,115 +6793,115 @@
         <v>8677</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>25268</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>470</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>471</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>21785</v>
+        <v>722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>474</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>475</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>47053</v>
+        <v>722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>476</v>
+        <v>308</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>477</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
-        <v>40</v>
-      </c>
-      <c r="D14" s="7">
-        <v>30961</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>481</v>
-      </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>28815</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="M14" s="7">
-        <v>82</v>
-      </c>
-      <c r="N14" s="7">
-        <v>59776</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,106 +6963,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>790</v>
+        <v>55142</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>484</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>485</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H16" s="7">
+        <v>90</v>
+      </c>
+      <c r="I16" s="7">
+        <v>60727</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>169</v>
+      </c>
+      <c r="N16" s="7">
+        <v>115869</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>790</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>490</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>1334</v>
+        <v>40254</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>51</v>
+        <v>492</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="I17" s="7">
-        <v>1619</v>
+        <v>33082</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="N17" s="7">
-        <v>2953</v>
+        <v>73336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>14</v>
@@ -7077,13 +7071,13 @@
         <v>9457</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>498</v>
+        <v>174</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -7092,13 +7086,13 @@
         <v>9785</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>500</v>
+        <v>144</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -7107,115 +7101,115 @@
         <v>19243</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>503</v>
+        <v>343</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>40254</v>
+        <v>1334</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1619</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="H19" s="7">
-        <v>52</v>
-      </c>
-      <c r="I19" s="7">
-        <v>33082</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2953</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="M19" s="7">
-        <v>110</v>
-      </c>
-      <c r="N19" s="7">
-        <v>73336</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>790</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7">
-        <v>79</v>
-      </c>
-      <c r="D20" s="7">
-        <v>55142</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>790</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="H20" s="7">
-        <v>90</v>
-      </c>
-      <c r="I20" s="7">
-        <v>60727</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="M20" s="7">
-        <v>169</v>
-      </c>
-      <c r="N20" s="7">
-        <v>115869</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,97 +7271,97 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>48041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>514</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>42487</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>516</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>90528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>464</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D23" s="7">
-        <v>1440</v>
+        <v>24118</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H23" s="7">
+        <v>36</v>
+      </c>
+      <c r="I23" s="7">
+        <v>22774</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>68</v>
+      </c>
+      <c r="N23" s="7">
+        <v>46892</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1440</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>527</v>
@@ -7376,7 +7370,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -7403,10 +7397,10 @@
         <v>531</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -7415,115 +7409,115 @@
         <v>10136</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1440</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="7">
-        <v>24118</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1440</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H25" s="7">
-        <v>36</v>
-      </c>
-      <c r="I25" s="7">
-        <v>22774</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="M25" s="7">
-        <v>68</v>
-      </c>
-      <c r="N25" s="7">
-        <v>46892</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7">
-        <v>69</v>
-      </c>
-      <c r="D26" s="7">
-        <v>48041</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>545</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H26" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>42487</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>547</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>548</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="M26" s="7">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>90528</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>550</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>551</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>552</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,112 +7573,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>59405</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>541</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>542</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I28" s="7">
-        <v>724</v>
+        <v>61863</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>545</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="N28" s="7">
-        <v>724</v>
+        <v>121268</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>548</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D29" s="7">
-        <v>763</v>
+        <v>33009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>550</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>551</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="H29" s="7">
+        <v>45</v>
+      </c>
+      <c r="I29" s="7">
+        <v>33236</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="M29" s="7">
+        <v>91</v>
+      </c>
+      <c r="N29" s="7">
+        <v>66245</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1547</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2311</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>11</v>
@@ -7693,13 +7687,13 @@
         <v>7538</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -7708,13 +7702,13 @@
         <v>10222</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -7723,115 +7717,115 @@
         <v>17760</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>33009</v>
+        <v>763</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1547</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2311</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H31" s="7">
-        <v>45</v>
-      </c>
-      <c r="I31" s="7">
-        <v>33236</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="M31" s="7">
-        <v>91</v>
-      </c>
-      <c r="N31" s="7">
-        <v>66245</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
-        <v>78</v>
-      </c>
-      <c r="D32" s="7">
-        <v>59405</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>581</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="H32" s="7">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>61863</v>
+        <v>724</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>583</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>584</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="M32" s="7">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>121268</v>
+        <v>724</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>587</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>588</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,106 +7887,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>276</v>
       </c>
       <c r="D34" s="7">
-        <v>790</v>
+        <v>202492</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>576</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="I34" s="7">
-        <v>724</v>
+        <v>201147</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>578</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>579</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>114</v>
+        <v>580</v>
       </c>
       <c r="M34" s="7">
-        <v>2</v>
+        <v>562</v>
       </c>
       <c r="N34" s="7">
-        <v>1513</v>
+        <v>403639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>187</v>
+        <v>581</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>582</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="D35" s="7">
-        <v>3538</v>
+        <v>126650</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>110</v>
+        <v>584</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>278</v>
+        <v>553</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="H35" s="7">
+        <v>169</v>
+      </c>
+      <c r="I35" s="7">
+        <v>115509</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="M35" s="7">
+        <v>343</v>
+      </c>
+      <c r="N35" s="7">
+        <v>242159</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="H35" s="7">
-        <v>6</v>
-      </c>
-      <c r="I35" s="7">
-        <v>4911</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M35" s="7">
-        <v>11</v>
-      </c>
-      <c r="N35" s="7">
-        <v>8449</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>37</v>
@@ -8001,13 +7995,13 @@
         <v>25795</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>50</v>
+        <v>593</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H36" s="7">
         <v>45</v>
@@ -8016,13 +8010,13 @@
         <v>32407</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M36" s="7">
         <v>82</v>
@@ -8034,112 +8028,112 @@
         <v>531</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
-        <v>126650</v>
+        <v>3538</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="H37" s="7">
+        <v>6</v>
+      </c>
+      <c r="I37" s="7">
+        <v>4911</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M37" s="7">
+        <v>11</v>
+      </c>
+      <c r="N37" s="7">
+        <v>8449</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="7">
-        <v>169</v>
-      </c>
-      <c r="I37" s="7">
-        <v>115509</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="P37" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="M37" s="7">
-        <v>343</v>
-      </c>
-      <c r="N37" s="7">
-        <v>242159</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>276</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>202492</v>
+        <v>790</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>610</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="H38" s="7">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>201147</v>
+        <v>724</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>612</v>
+        <v>217</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>613</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>614</v>
+        <v>102</v>
       </c>
       <c r="M38" s="7">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>403639</v>
+        <v>1513</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>615</v>
+        <v>211</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>616</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>617</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,6 +8185,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A16-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A16-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EADA6950-7C71-418A-BB80-9CD2C954B79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D920B85F-763A-4B91-96ED-638FCA0F1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DCFDF7B-CAEE-459F-AF2D-7846A17EB026}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF599051-D840-452D-9CEA-394C03A64F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="624">
   <si>
     <t>Menores según frecuencia de ayudarse entre los amigos en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,28 +76,28 @@
     <t>60,58%</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>41,64%</t>
   </si>
   <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>39,42%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
   </si>
   <si>
     <t>52,18%</t>
   </si>
   <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
   </si>
   <si>
     <t>46,07%</t>
   </si>
   <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -145,13 +145,13 @@
     <t>6,18%</t>
   </si>
   <si>
-    <t>24,45%</t>
+    <t>30,65%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>15,94%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -169,1693 +169,1747 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
     <t>35,06%</t>
   </si>
   <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de ayudarse entre los amigos en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de ayudarse entre los amigos en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>9,42%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>2,13%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D14A3AE-8E5A-47BC-BF47-D1BCF8BCA44D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE895BC-B084-408D-A80C-4A6D8324C6F3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3010,10 +3064,10 @@
         <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3022,13 +3076,13 @@
         <v>56119</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>155</v>
@@ -3037,13 +3091,13 @@
         <v>100040</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3112,13 @@
         <v>46684</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -3073,13 +3127,13 @@
         <v>36603</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -3088,13 +3142,13 @@
         <v>83287</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3163,13 @@
         <v>8631</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -3124,13 +3178,13 @@
         <v>10616</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -3139,13 +3193,13 @@
         <v>19247</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,7 +3220,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3175,13 +3229,13 @@
         <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3190,13 +3244,13 @@
         <v>654</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,7 +3271,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3232,7 +3286,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3247,7 +3301,7 @@
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3357,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3315,13 +3369,13 @@
         <v>38379</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -3330,13 +3384,13 @@
         <v>34324</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -3345,13 +3399,13 @@
         <v>72703</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3420,13 @@
         <v>21245</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -3381,13 +3435,13 @@
         <v>19311</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -3396,13 +3450,13 @@
         <v>40556</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3471,13 @@
         <v>5537</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -3432,13 +3486,13 @@
         <v>5624</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -3447,13 +3501,13 @@
         <v>11160</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3522,13 @@
         <v>487</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3483,13 +3537,13 @@
         <v>533</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -3498,13 +3552,13 @@
         <v>1021</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3573,13 @@
         <v>647</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3534,13 +3588,13 @@
         <v>632</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3549,13 +3603,13 @@
         <v>1280</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,7 +3665,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3623,13 +3677,13 @@
         <v>44187</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -3638,13 +3692,13 @@
         <v>35220</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M28" s="7">
         <v>109</v>
@@ -3653,13 +3707,13 @@
         <v>79406</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3728,13 @@
         <v>41653</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -3689,13 +3743,13 @@
         <v>38016</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>110</v>
@@ -3704,13 +3758,13 @@
         <v>79669</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3779,13 @@
         <v>12058</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -3740,13 +3794,13 @@
         <v>16481</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -3755,13 +3809,13 @@
         <v>28539</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3836,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3791,13 +3845,13 @@
         <v>1417</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -3833,7 +3887,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3863,7 +3917,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,7 +4153,7 @@
         <v>2604</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>211</v>
@@ -4120,7 +4174,7 @@
         <v>214</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4189,13 @@
         <v>647</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4150,13 +4204,13 @@
         <v>632</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -4165,13 +4219,13 @@
         <v>1280</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,7 +4281,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4248,7 +4302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9777CA7C-AED4-4E57-80C3-6D427CBB4F37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFCDC34-5720-493A-BC31-727470A2F173}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4265,7 +4319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4372,13 +4426,13 @@
         <v>8658</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4387,13 +4441,13 @@
         <v>7859</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4402,13 +4456,13 @@
         <v>16517</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4477,13 @@
         <v>5832</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4438,13 +4492,13 @@
         <v>3325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4453,13 +4507,13 @@
         <v>9157</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,7 +4534,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4495,7 +4549,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4510,7 +4564,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,7 +4585,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4546,7 +4600,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4561,7 +4615,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4636,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4591,13 +4645,13 @@
         <v>760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4606,13 +4660,13 @@
         <v>760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4734,13 @@
         <v>27881</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -4695,13 +4749,13 @@
         <v>29729</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4710,13 +4764,13 @@
         <v>57609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4785,13 @@
         <v>22219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -4746,13 +4800,13 @@
         <v>18659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -4761,13 +4815,13 @@
         <v>40878</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4836,13 @@
         <v>7386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4797,13 +4851,13 @@
         <v>3022</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -4812,13 +4866,13 @@
         <v>10408</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4893,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4848,13 +4902,13 @@
         <v>697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4863,13 +4917,13 @@
         <v>697</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,7 +4944,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -4899,13 +4953,13 @@
         <v>1576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4914,13 +4968,13 @@
         <v>1576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5042,13 @@
         <v>52498</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -5003,13 +5057,13 @@
         <v>49300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -5018,7 +5072,7 @@
         <v>101799</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>287</v>
@@ -5057,10 +5111,10 @@
         <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -5069,13 +5123,13 @@
         <v>78312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5144,13 @@
         <v>7772</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5105,7 +5159,7 @@
         <v>5143</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>301</v>
@@ -5162,7 +5216,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5171,13 +5225,13 @@
         <v>1234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,7 +5252,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5207,13 +5261,13 @@
         <v>726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5222,13 +5276,13 @@
         <v>726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,7 +5338,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5296,13 +5350,13 @@
         <v>43140</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -5311,13 +5365,13 @@
         <v>30893</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>115</v>
@@ -5326,13 +5380,13 @@
         <v>74034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5401,13 @@
         <v>19399</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -5362,13 +5416,13 @@
         <v>27535</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -5377,13 +5431,13 @@
         <v>46935</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5452,13 @@
         <v>4360</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -5413,13 +5467,13 @@
         <v>5486</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -5428,13 +5482,13 @@
         <v>9846</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5503,13 @@
         <v>2018</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5464,13 +5518,13 @@
         <v>1193</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5479,13 +5533,13 @@
         <v>3210</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5554,13 @@
         <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5515,13 +5569,13 @@
         <v>698</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5530,13 +5584,13 @@
         <v>1305</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5646,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5604,13 +5658,13 @@
         <v>43345</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -5619,13 +5673,13 @@
         <v>43204</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M28" s="7">
         <v>118</v>
@@ -5634,13 +5688,13 @@
         <v>86549</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5709,13 @@
         <v>38700</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H29" s="7">
         <v>50</v>
@@ -5670,13 +5724,13 @@
         <v>39055</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -5685,13 +5739,13 @@
         <v>77756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5760,13 @@
         <v>8730</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>65</v>
+        <v>374</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -5721,13 +5775,13 @@
         <v>7242</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -5736,13 +5790,13 @@
         <v>15971</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5811,13 @@
         <v>1664</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -5772,13 +5826,13 @@
         <v>1826</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5787,13 +5841,13 @@
         <v>3489</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5862,13 @@
         <v>691</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5829,7 +5883,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5838,13 +5892,13 @@
         <v>691</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>385</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5966,13 @@
         <v>175523</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H34" s="7">
         <v>227</v>
@@ -5927,13 +5981,13 @@
         <v>160985</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M34" s="7">
         <v>487</v>
@@ -5942,13 +5996,13 @@
         <v>336508</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +6017,13 @@
         <v>121799</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H35" s="7">
         <v>188</v>
@@ -5978,13 +6032,13 @@
         <v>131237</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M35" s="7">
         <v>361</v>
@@ -5993,13 +6047,13 @@
         <v>253037</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6068,13 @@
         <v>28247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -6029,13 +6083,13 @@
         <v>20893</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>408</v>
+        <v>62</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -6044,13 +6098,13 @@
         <v>49140</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6119,13 @@
         <v>4306</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -6080,13 +6134,13 @@
         <v>4325</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>267</v>
+        <v>419</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>276</v>
+        <v>421</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -6095,13 +6149,13 @@
         <v>8631</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>179</v>
+        <v>422</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6170,13 @@
         <v>1298</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -6131,13 +6185,13 @@
         <v>3760</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -6146,13 +6200,13 @@
         <v>5058</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>105</v>
+        <v>429</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6262,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6229,7 +6283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB176D0-8C51-410B-99AA-794B224930EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA19B35-6A9E-4A68-BE3D-157769133928}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6246,7 +6300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6353,13 +6407,13 @@
         <v>8943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -6368,13 +6422,13 @@
         <v>7255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -6383,13 +6437,13 @@
         <v>16198</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6458,13 @@
         <v>4000</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6419,13 +6473,13 @@
         <v>4632</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6434,13 +6488,13 @@
         <v>8633</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6509,13 @@
         <v>1371</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6470,13 +6524,13 @@
         <v>1016</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6485,13 +6539,13 @@
         <v>2386</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,7 +6566,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6521,13 +6575,13 @@
         <v>1023</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>458</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6536,13 +6590,13 @@
         <v>1023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,7 +6617,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6578,7 +6632,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>462</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6593,7 +6647,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6715,13 @@
         <v>30961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -6676,13 +6730,13 @@
         <v>28815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -6691,13 +6745,13 @@
         <v>59776</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6766,13 @@
         <v>25268</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -6727,13 +6781,13 @@
         <v>21785</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="M11" s="7">
         <v>64</v>
@@ -6742,13 +6796,13 @@
         <v>47053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6817,13 @@
         <v>3084</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -6778,13 +6832,13 @@
         <v>5593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>170</v>
+        <v>486</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -6793,13 +6847,13 @@
         <v>8677</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>477</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>478</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,7 +6874,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6829,13 +6883,13 @@
         <v>722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>480</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>489</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6850,7 +6904,7 @@
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,7 +6925,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6886,7 +6940,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6901,7 +6955,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +7023,13 @@
         <v>55142</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -6984,13 +7038,13 @@
         <v>60727</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -6999,13 +7053,13 @@
         <v>115869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7074,13 @@
         <v>40254</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>493</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -7035,13 +7089,13 @@
         <v>33082</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -7050,13 +7104,13 @@
         <v>73336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7125,13 @@
         <v>9457</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>174</v>
+        <v>512</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -7086,13 +7140,13 @@
         <v>9785</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>144</v>
+        <v>514</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -7101,13 +7155,13 @@
         <v>19243</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>343</v>
+        <v>517</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7176,13 @@
         <v>1334</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7137,13 +7191,13 @@
         <v>1619</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>508</v>
+        <v>178</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -7152,13 +7206,13 @@
         <v>2953</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>523</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7227,13 @@
         <v>790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7194,7 +7248,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7203,13 +7257,13 @@
         <v>790</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,7 +7319,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7277,13 +7331,13 @@
         <v>48041</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -7292,13 +7346,13 @@
         <v>42487</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="M22" s="7">
         <v>135</v>
@@ -7307,13 +7361,13 @@
         <v>90528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7382,13 @@
         <v>24118</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -7343,13 +7397,13 @@
         <v>22774</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="M23" s="7">
         <v>68</v>
@@ -7358,13 +7412,13 @@
         <v>46892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7433,13 @@
         <v>4344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -7394,13 +7448,13 @@
         <v>5792</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>475</v>
+        <v>548</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -7409,13 +7463,13 @@
         <v>10136</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>534</v>
+        <v>103</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7484,13 @@
         <v>1440</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7451,7 +7505,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7460,13 +7514,13 @@
         <v>1440</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,7 +7541,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7502,7 +7556,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7517,7 +7571,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,7 +7627,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7585,13 +7639,13 @@
         <v>59405</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="H28" s="7">
         <v>80</v>
@@ -7600,13 +7654,13 @@
         <v>61863</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="M28" s="7">
         <v>158</v>
@@ -7615,13 +7669,13 @@
         <v>121268</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>549</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7690,13 @@
         <v>33009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -7651,13 +7705,13 @@
         <v>33236</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -7666,13 +7720,13 @@
         <v>66245</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7741,13 @@
         <v>7538</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>334</v>
+        <v>576</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -7702,13 +7756,13 @@
         <v>10222</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>563</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -7717,13 +7771,13 @@
         <v>17760</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7792,13 @@
         <v>763</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -7753,13 +7807,13 @@
         <v>1547</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -7768,13 +7822,13 @@
         <v>2311</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>570</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,7 +7849,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7804,13 +7858,13 @@
         <v>724</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7819,13 +7873,13 @@
         <v>724</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7947,13 @@
         <v>202492</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="H34" s="7">
         <v>286</v>
@@ -7908,13 +7962,13 @@
         <v>201147</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="M34" s="7">
         <v>562</v>
@@ -7923,13 +7977,13 @@
         <v>403639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7998,13 @@
         <v>126650</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="H35" s="7">
         <v>169</v>
@@ -7959,13 +8013,13 @@
         <v>115509</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>587</v>
+        <v>87</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="M35" s="7">
         <v>343</v>
@@ -7974,13 +8028,13 @@
         <v>242159</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +8049,13 @@
         <v>25795</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>593</v>
+        <v>511</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="H36" s="7">
         <v>45</v>
@@ -8010,13 +8064,13 @@
         <v>32407</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="M36" s="7">
         <v>82</v>
@@ -8025,13 +8079,13 @@
         <v>58202</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +8100,13 @@
         <v>3538</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -8061,13 +8115,13 @@
         <v>4911</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>601</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>351</v>
+        <v>617</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -8076,13 +8130,13 @@
         <v>8449</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>308</v>
+        <v>619</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8151,13 @@
         <v>790</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>570</v>
+        <v>219</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -8112,13 +8166,13 @@
         <v>724</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>102</v>
+        <v>622</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -8133,7 +8187,7 @@
         <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>179</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,7 +8243,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
